--- a/clusters/tests/test_models/excel_test_file/excel_with_bad_date.xlsx
+++ b/clusters/tests/test_models/excel_test_file/excel_with_bad_date.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC84C7B5-B41A-444D-AD02-645FEF404922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xpeppers/Desktop/career-landscape/clusters/tests/test_models/excel_test_file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEBE83B-98C1-5E40-B2A2-8C5881AD0577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18500" windowHeight="10360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>User Information</t>
   </si>
@@ -73,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +178,32 @@
     <tableColumn id="3" xr3:uid="{76DBF87F-133C-4549-B4FF-F2BF9DD376FD}" name="Nome"/>
     <tableColumn id="4" xr3:uid="{8B999421-C6E6-401A-AB2F-C235DE1ED372}" name="Cognome"/>
     <tableColumn id="5" xr3:uid="{BCD39146-C78F-4B6C-8254-5DF4CE8B68FC}" name="data"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A268096-8480-B74D-AC6E-0FA928D6369A}" name="Table23" displayName="Table23" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{01129B85-31A8-2244-9F15-2D02B2B78A53}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BD812E26-49A0-964D-8B77-C1F3D0066310}" name="User Information"/>
+    <tableColumn id="3" xr3:uid="{44D1F448-EB79-C64D-A36C-931AFE37EE2C}" name="Nome"/>
+    <tableColumn id="4" xr3:uid="{65A2C581-9294-F14D-986F-75BBCC0EAA39}" name="Cognome"/>
+    <tableColumn id="5" xr3:uid="{A65BEBEF-A346-6A4F-8607-6002A5B245E5}" name="data"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5B11C4CE-0C75-1A4F-81C0-882BEEC93074}" name="Table24" displayName="Table24" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{678FEB32-EBA9-C941-9B09-00FBB0B5B577}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B797BFDA-DBA1-7345-9EE0-7B0BBFF88147}" name="User Information"/>
+    <tableColumn id="3" xr3:uid="{8A6C2422-FB64-1642-B5F4-80E37366371E}" name="Nome"/>
+    <tableColumn id="4" xr3:uid="{811B83EB-E155-E24E-9962-F53AA6DEB6D9}" name="Cognome"/>
+    <tableColumn id="5" xr3:uid="{F5CFF273-14AB-9C42-8DF5-962B52FDA43F}" name="data"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,13 +508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -505,17 +539,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -523,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -534,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -545,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -556,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -567,10 +601,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2946CD2-583C-BF45-82E3-D7981F0A2088}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECD83CE-0B20-2C4F-9D7D-B5342204823D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A5B0C-47CD-7F41-9754-B318F1E775CB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/clusters/tests/test_models/excel_test_file/excel_with_bad_date.xlsx
+++ b/clusters/tests/test_models/excel_test_file/excel_with_bad_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xpeppers/Desktop/career-landscape/clusters/tests/test_models/excel_test_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEBE83B-98C1-5E40-B2A2-8C5881AD0577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12014BA0-FEA6-3E41-BE58-1640FEEB48B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="18500" windowHeight="10360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
